--- a/Plancheck/plancheck_data/check_protocol/defaut.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/defaut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -83,18 +83,6 @@
   </si>
   <si>
     <t>HU</t>
-  </si>
-  <si>
-    <t>vol min</t>
-  </si>
-  <si>
-    <t>vol max</t>
-  </si>
-  <si>
-    <t>Expected part</t>
-  </si>
-  <si>
-    <t>Left/right</t>
   </si>
   <si>
     <t>Contrainte 1</t>
@@ -1344,7 +1332,7 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1367,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1472,7 +1460,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1484,10 +1472,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1501,7 +1489,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1541,7 +1529,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="L13" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1553,7 +1541,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="L14" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1565,12 +1553,12 @@
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
       <c r="L15" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -1580,15 +1568,15 @@
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
       <c r="L16" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="29"/>
@@ -1597,15 +1585,15 @@
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="L17" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="29"/>
@@ -1614,15 +1602,15 @@
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="L18" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29"/>
@@ -1631,15 +1619,15 @@
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
       <c r="L19" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="29"/>
@@ -1650,10 +1638,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="29"/>
@@ -1662,15 +1650,15 @@
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
       <c r="L21" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="29"/>
@@ -1679,15 +1667,15 @@
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
       <c r="L22" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="29"/>
@@ -1696,15 +1684,15 @@
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
       <c r="L23" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="29"/>
@@ -1715,10 +1703,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="29"/>
@@ -1729,7 +1717,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B26" s="29">
         <v>200</v>
@@ -1741,12 +1729,12 @@
       <c r="G26" s="29"/>
       <c r="H26" s="30"/>
       <c r="L26" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" s="29">
         <v>200</v>
@@ -1758,15 +1746,15 @@
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="L27" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -1775,7 +1763,7 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="L28" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1787,12 +1775,12 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="L29" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -1802,7 +1790,7 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="L30" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1819,12 +1807,12 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="L31" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B32" s="26">
         <v>0.125</v>
@@ -1836,12 +1824,12 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="L32" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B33" s="26">
         <v>0.125</v>
@@ -1853,12 +1841,12 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="L33" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>5</v>
@@ -1870,12 +1858,12 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="L34" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>6</v>
@@ -1887,7 +1875,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="L35" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1900,7 +1888,7 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="L36" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1913,7 +1901,7 @@
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="L37" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,7 +1914,7 @@
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="L38" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1939,7 +1927,7 @@
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="L39" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1952,7 +1940,7 @@
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="L40" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1965,20 +1953,20 @@
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="L41" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -1989,7 +1977,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B45" s="22">
         <v>300</v>
@@ -2003,7 +1991,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B46" s="22">
         <v>3</v>
@@ -2017,7 +2005,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B47" s="22">
         <v>100</v>
@@ -2031,7 +2019,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B48" s="22">
         <v>30</v>
@@ -2043,12 +2031,12 @@
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="L48" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B49" s="22">
         <v>0.1</v>
@@ -2060,52 +2048,52 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="L49" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L51" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L52" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L55" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L56" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L57" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L58" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L59" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L60" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L61" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2145,21 +2133,19 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="11" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" style="12"/>
-    <col min="5" max="5" width="15.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="12"/>
+    <col min="2" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2167,19 +2153,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2193,19 +2167,18 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2213,19 +2186,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2238,19 +2199,18 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2258,41 +2218,29 @@
         <v>19</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <v>-1000</v>
       </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <v>-300</v>
       </c>
-      <c r="G3" t="s">
-        <v>91</v>
+      <c r="C3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2324,45 +2272,45 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2370,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/plancheck_data/check_protocol/defaut.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/defaut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1332,8 +1332,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2201,7 +2201,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>

--- a/Plancheck/plancheck_data/check_protocol/defaut.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/defaut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
     <t>Abaissement</t>
   </si>
   <si>
-    <t>defaut</t>
+    <t>DEFAUT</t>
   </si>
 </sst>
 </file>
@@ -1322,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2245,7 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
